--- a/data/trans_orig/IP07C09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE8E631-7623-4860-B666-154DA1564C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5491B9D-96FB-4598-B29B-837BECF41948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{69285E6E-8ECE-40BA-A862-C17A93F640AB}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C965B464-C34C-43D2-A86C-8EEAFC59A577}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,241 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>11,53%</t>
@@ -100,33 +331,6 @@
     <t>12,82%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>44,55%</t>
   </si>
   <si>
@@ -154,24 +358,6 @@
     <t>53,77%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>43,17%</t>
   </si>
   <si>
@@ -199,117 +385,132 @@
     <t>47,3%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
     <t>11,31%</t>
   </si>
   <si>
@@ -337,21 +538,6 @@
     <t>17,13%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
     <t>45,29%</t>
   </si>
   <si>
@@ -379,12 +565,6 @@
     <t>53,63%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>43,4%</t>
   </si>
   <si>
@@ -412,184 +592,31 @@
     <t>47,37%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>8,74%</t>
@@ -619,24 +646,6 @@
     <t>10,3%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
     <t>46,47%</t>
   </si>
   <si>
@@ -664,15 +673,6 @@
     <t>50,52%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
     <t>44,31%</t>
   </si>
   <si>
@@ -703,6 +703,222 @@
     <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2012 (Tasa respuesta: 43,45%)</t>
   </si>
   <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
     <t>6,7%</t>
   </si>
   <si>
@@ -730,21 +946,6 @@
     <t>11,58%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
     <t>38,09%</t>
   </si>
   <si>
@@ -772,24 +973,6 @@
     <t>43,42%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
     <t>53,0%</t>
   </si>
   <si>
@@ -817,118 +1000,139 @@
     <t>57,74%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>9,96%</t>
@@ -958,18 +1162,6 @@
     <t>11,79%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
     <t>35,04%</t>
   </si>
   <si>
@@ -997,18 +1189,6 @@
     <t>44,02%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
     <t>54,3%</t>
   </si>
   <si>
@@ -1036,184 +1216,31 @@
     <t>60,39%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>6,93%</t>
@@ -1240,24 +1267,6 @@
     <t>9,38%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
     <t>34,66%</t>
   </si>
   <si>
@@ -1282,15 +1291,6 @@
     <t>38,67%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
     <t>56,19%</t>
   </si>
   <si>
@@ -1321,9 +1321,204 @@
     <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2015 (Tasa respuesta: 45,53%)</t>
   </si>
   <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
     <t>4,47%</t>
   </si>
   <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
     <t>1,88%</t>
   </si>
   <si>
@@ -1339,36 +1534,12 @@
     <t>14,81%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
     <t>4,28%</t>
   </si>
   <si>
     <t>10,24%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
     <t>35,29%</t>
   </si>
   <si>
@@ -1393,18 +1564,6 @@
     <t>28,62%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
     <t>56,88%</t>
   </si>
   <si>
@@ -1429,91 +1588,133 @@
     <t>61,92%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
   </si>
   <si>
     <t>11,22%</t>
@@ -1537,21 +1738,6 @@
     <t>14,28%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
     <t>25,93%</t>
   </si>
   <si>
@@ -1576,24 +1762,6 @@
     <t>31,8%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
     <t>62,21%</t>
   </si>
   <si>
@@ -1618,172 +1786,22 @@
     <t>67,2%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>8,04%</t>
@@ -1810,12 +1828,6 @@
     <t>10,0%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
     <t>30,36%</t>
   </si>
   <si>
@@ -1838,18 +1850,6 @@
   </si>
   <si>
     <t>33,61%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
   </si>
   <si>
     <t>59,8%</t>
@@ -2268,7 +2268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACC48DF-AEA8-4DDE-AA64-9064A89A7643}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2F27EE-8FDE-45B8-9A75-729E7C9F1F5D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2386,10 +2386,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>10467</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2401,238 +2401,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>7174</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>27</v>
-      </c>
-      <c r="N4" s="7">
-        <v>17641</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1333</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>40431</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>51104</v>
+        <v>929</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>91535</v>
+        <v>929</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>7152</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>7790</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>14942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>39186</v>
+        <v>5328</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>40249</v>
+        <v>4623</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>79435</v>
+        <v>9951</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,108 +2641,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>90763</v>
+        <v>12480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>99181</v>
+        <v>13342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>294</v>
+        <v>33</v>
       </c>
       <c r="N9" s="7">
-        <v>189945</v>
+        <v>25822</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2611</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1966</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>4577</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2751,13 +2751,13 @@
         <v>808</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2781,121 +2781,121 @@
         <v>808</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2611</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="7">
-        <v>34377</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H12" s="7">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>22172</v>
+        <v>1966</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>56549</v>
+        <v>4577</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>34377</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>22172</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="7">
+        <v>85</v>
+      </c>
+      <c r="N13" s="7">
+        <v>56549</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>28</v>
@@ -2904,13 +2904,13 @@
         <v>17692</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -2919,13 +2919,13 @@
         <v>19293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>57</v>
@@ -2934,13 +2934,13 @@
         <v>36985</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2955,13 @@
         <v>55488</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -2970,13 +2970,13 @@
         <v>43431</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>150</v>
@@ -2985,270 +2985,270 @@
         <v>98919</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>9967</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>9734</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>19701</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1397</v>
+        <v>654</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1397</v>
+        <v>1333</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>39915</v>
+        <v>10467</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="H18" s="7">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>37415</v>
+        <v>7174</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="N18" s="7">
-        <v>77330</v>
+        <v>17641</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>40431</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>99</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>51104</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>91535</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D20" s="7">
-        <v>38247</v>
+        <v>39186</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H20" s="7">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="I20" s="7">
-        <v>29763</v>
+        <v>40249</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="N20" s="7">
-        <v>68010</v>
+        <v>79435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,54 +3257,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D21" s="7">
-        <v>88129</v>
+        <v>90763</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="I21" s="7">
-        <v>78309</v>
+        <v>99181</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="N21" s="7">
-        <v>166438</v>
+        <v>189945</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3316,49 +3316,49 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -3367,196 +3367,196 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>7152</v>
+        <v>3833</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>7790</v>
+        <v>3130</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M24" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N24" s="7">
-        <v>14942</v>
+        <v>6963</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>21015</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>20689</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>41704</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D26" s="7">
-        <v>5328</v>
+        <v>35810</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>50</v>
+      </c>
+      <c r="I26" s="7">
+        <v>31202</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H26" s="7">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4623</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>107</v>
+      </c>
+      <c r="N26" s="7">
+        <v>67012</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M26" s="7">
-        <v>13</v>
-      </c>
-      <c r="N26" s="7">
-        <v>9951</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,108 +3565,108 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D27" s="7">
-        <v>12480</v>
+        <v>60658</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I27" s="7">
-        <v>13342</v>
+        <v>55653</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="N27" s="7">
-        <v>25822</v>
+        <v>116311</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>3833</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="H28" s="7">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7">
-        <v>3130</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M28" s="7">
-        <v>12</v>
-      </c>
-      <c r="N28" s="7">
-        <v>6963</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -3675,142 +3675,142 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>632</v>
+        <v>1397</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>632</v>
+        <v>1397</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="7">
+        <v>15</v>
+      </c>
+      <c r="D30" s="7">
+        <v>9967</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="7">
+        <v>13</v>
+      </c>
+      <c r="I30" s="7">
+        <v>9734</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M30" s="7">
         <v>28</v>
       </c>
-      <c r="C30" s="7">
-        <v>33</v>
-      </c>
-      <c r="D30" s="7">
-        <v>21015</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="N30" s="7">
+        <v>19701</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H30" s="7">
-        <v>34</v>
-      </c>
-      <c r="I30" s="7">
-        <v>20689</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M30" s="7">
-        <v>67</v>
-      </c>
-      <c r="N30" s="7">
-        <v>41704</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>39915</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>37415</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="L31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M31" s="7">
+        <v>107</v>
+      </c>
+      <c r="N31" s="7">
+        <v>77330</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>174</v>
@@ -3819,13 +3819,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D32" s="7">
-        <v>35810</v>
+        <v>38247</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>175</v>
@@ -3837,10 +3837,10 @@
         <v>177</v>
       </c>
       <c r="H32" s="7">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I32" s="7">
-        <v>31202</v>
+        <v>29763</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>178</v>
@@ -3852,10 +3852,10 @@
         <v>180</v>
       </c>
       <c r="M32" s="7">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="N32" s="7">
-        <v>67012</v>
+        <v>68010</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>181</v>
@@ -3873,49 +3873,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7">
-        <v>60658</v>
+        <v>88129</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I33" s="7">
-        <v>55653</v>
+        <v>78309</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="N33" s="7">
-        <v>116311</v>
+        <v>166438</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,55 +3926,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>26878</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="H34" s="7">
-        <v>34</v>
-      </c>
-      <c r="I34" s="7">
-        <v>22932</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M34" s="7">
-        <v>75</v>
-      </c>
-      <c r="N34" s="7">
-        <v>49810</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>2</v>
@@ -3983,13 +3983,13 @@
         <v>1488</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3998,13 +3998,13 @@
         <v>2682</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M35" s="7">
         <v>6</v>
@@ -4013,112 +4013,112 @@
         <v>4170</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="D36" s="7">
-        <v>142890</v>
+        <v>26878</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H36" s="7">
+        <v>34</v>
+      </c>
+      <c r="I36" s="7">
+        <v>22932</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M36" s="7">
+        <v>75</v>
+      </c>
+      <c r="N36" s="7">
+        <v>49810</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="H36" s="7">
-        <v>206</v>
-      </c>
-      <c r="I36" s="7">
-        <v>139170</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M36" s="7">
-        <v>421</v>
-      </c>
-      <c r="N36" s="7">
-        <v>282061</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>142890</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="7">
+        <v>206</v>
+      </c>
+      <c r="I37" s="7">
+        <v>139170</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M37" s="7">
+        <v>421</v>
+      </c>
+      <c r="N37" s="7">
+        <v>282061</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>210</v>
@@ -4127,7 +4127,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>205</v>
@@ -4187,13 +4187,13 @@
         <v>307518</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>431</v>
@@ -4202,13 +4202,13 @@
         <v>289916</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>894</v>
@@ -4217,13 +4217,13 @@
         <v>597435</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4244,7 +4244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35EB5D0-B9B9-4862-83E7-EF6A4C3E955B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DDA238-88B8-44FD-8A88-34EDF4AB476F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4362,55 +4362,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>926</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>926</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="7">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8599</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M4" s="7">
-        <v>23</v>
-      </c>
-      <c r="N4" s="7">
-        <v>14935</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4419,196 +4419,196 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>36009</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>37156</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="M6" s="7">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>73165</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>2086</v>
+        <v>8178</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>1451</v>
+        <v>3546</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>3537</v>
+        <v>11724</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>50112</v>
+        <v>6312</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="H8" s="7">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>50021</v>
+        <v>6804</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="M8" s="7">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>100133</v>
+        <v>13116</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,108 +4617,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>94543</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="I9" s="7">
-        <v>97837</v>
+        <v>11275</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>192379</v>
+        <v>25765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3225</v>
+        <v>1310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>4938</v>
+        <v>697</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>8162</v>
+        <v>2007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -4727,13 +4727,13 @@
         <v>1334</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4742,13 +4742,13 @@
         <v>736</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4757,121 +4757,121 @@
         <v>2070</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>18963</v>
+        <v>3225</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>16981</v>
+        <v>4938</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>35944</v>
+        <v>8162</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>1310</v>
+        <v>18963</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>697</v>
+        <v>16981</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="N13" s="7">
-        <v>2007</v>
+        <v>35944</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>47</v>
@@ -4880,13 +4880,13 @@
         <v>31967</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -4895,13 +4895,13 @@
         <v>28083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -4910,13 +4910,13 @@
         <v>60050</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4931,13 @@
         <v>56799</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>72</v>
@@ -4946,13 +4946,13 @@
         <v>51435</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -4961,270 +4961,270 @@
         <v>108234</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>8837</v>
+        <v>2086</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>298</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>5179</v>
+        <v>1451</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>14016</v>
+        <v>3537</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
-        <v>624</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>31103</v>
+        <v>6336</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="I18" s="7">
-        <v>33653</v>
+        <v>8599</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="M18" s="7">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="N18" s="7">
-        <v>64756</v>
+        <v>14935</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>36009</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="I19" s="7">
-        <v>768</v>
+        <v>37156</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="N19" s="7">
-        <v>768</v>
+        <v>73165</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D20" s="7">
-        <v>48192</v>
+        <v>50112</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="I20" s="7">
-        <v>45335</v>
+        <v>50021</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="N20" s="7">
-        <v>93526</v>
+        <v>100133</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,54 +5233,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D21" s="7">
-        <v>88756</v>
+        <v>94543</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="I21" s="7">
-        <v>84934</v>
+        <v>97837</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="N21" s="7">
-        <v>173690</v>
+        <v>192379</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5292,247 +5292,247 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1814</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>325</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>1929</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>326</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>327</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>3743</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>329</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>330</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3990</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H24" s="7">
         <v>9</v>
       </c>
-      <c r="D24" s="7">
-        <v>8178</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="I24" s="7">
+        <v>5720</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H24" s="7">
-        <v>4</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3546</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>15</v>
+      </c>
+      <c r="N24" s="7">
+        <v>9710</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="M24" s="7">
-        <v>13</v>
-      </c>
-      <c r="N24" s="7">
-        <v>11724</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>17741</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>339</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>39</v>
+        <v>340</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>341</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I25" s="7">
-        <v>926</v>
+        <v>23853</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>342</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>343</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="N25" s="7">
-        <v>926</v>
+        <v>41594</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D26" s="7">
-        <v>6312</v>
+        <v>44957</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H26" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I26" s="7">
-        <v>6804</v>
+        <v>33008</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M26" s="7">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="N26" s="7">
-        <v>13116</v>
+        <v>77965</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,252 +5541,252 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>68501</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7">
-        <v>11275</v>
+        <v>65167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="N27" s="7">
-        <v>25765</v>
+        <v>133668</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>3990</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>355</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>356</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>357</v>
       </c>
       <c r="H28" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>5720</v>
+        <v>768</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>63</v>
+        <v>358</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>358</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>359</v>
       </c>
       <c r="M28" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>9710</v>
+        <v>768</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>1814</v>
+        <v>624</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>1</v>
+      </c>
+      <c r="N29" s="7">
+        <v>624</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="H29" s="7">
-        <v>3</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1929</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="M29" s="7">
-        <v>6</v>
-      </c>
-      <c r="N29" s="7">
-        <v>3743</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D30" s="7">
-        <v>17741</v>
+        <v>8837</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H30" s="7">
+        <v>6</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5179</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>17</v>
+      </c>
+      <c r="N30" s="7">
+        <v>14016</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="H30" s="7">
-        <v>37</v>
-      </c>
-      <c r="I30" s="7">
-        <v>23853</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="M30" s="7">
-        <v>65</v>
-      </c>
-      <c r="N30" s="7">
-        <v>41594</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>31103</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>374</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>39</v>
+        <v>375</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>234</v>
+        <v>376</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="I31" s="7">
-        <v>656</v>
+        <v>33653</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>86</v>
+      </c>
+      <c r="N31" s="7">
+        <v>64756</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>656</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>382</v>
@@ -5795,13 +5795,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D32" s="7">
-        <v>44957</v>
+        <v>48192</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>383</v>
@@ -5813,10 +5813,10 @@
         <v>385</v>
       </c>
       <c r="H32" s="7">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I32" s="7">
-        <v>33008</v>
+        <v>45335</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>386</v>
@@ -5828,10 +5828,10 @@
         <v>388</v>
       </c>
       <c r="M32" s="7">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="N32" s="7">
-        <v>77965</v>
+        <v>93526</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>389</v>
@@ -5849,49 +5849,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D33" s="7">
-        <v>68501</v>
+        <v>88756</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I33" s="7">
-        <v>65167</v>
+        <v>84934</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="N33" s="7">
-        <v>133668</v>
+        <v>173690</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,55 +5902,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D34" s="7">
-        <v>22387</v>
+        <v>3396</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>392</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H34" s="7">
+        <v>6</v>
+      </c>
+      <c r="I34" s="7">
+        <v>4498</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="H34" s="7">
-        <v>35</v>
-      </c>
-      <c r="I34" s="7">
-        <v>24436</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>11</v>
+      </c>
+      <c r="N34" s="7">
+        <v>7894</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="M34" s="7">
-        <v>67</v>
-      </c>
-      <c r="N34" s="7">
-        <v>46823</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="P34" s="7" t="s">
-        <v>355</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>399</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>6</v>
@@ -5959,13 +5959,13 @@
         <v>3771</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -5974,13 +5974,13 @@
         <v>3275</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="M35" s="7">
         <v>11</v>
@@ -5989,121 +5989,121 @@
         <v>7046</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="D36" s="7">
-        <v>111994</v>
+        <v>22387</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H36" s="7">
+        <v>35</v>
+      </c>
+      <c r="I36" s="7">
+        <v>24436</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>67</v>
+      </c>
+      <c r="N36" s="7">
+        <v>46823</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="P36" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="H36" s="7">
-        <v>165</v>
-      </c>
-      <c r="I36" s="7">
-        <v>115188</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M36" s="7">
-        <v>325</v>
-      </c>
-      <c r="N36" s="7">
-        <v>227182</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="D37" s="7">
-        <v>3396</v>
+        <v>111994</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>208</v>
+        <v>410</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>268</v>
+        <v>411</v>
       </c>
       <c r="H37" s="7">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="I37" s="7">
-        <v>4498</v>
+        <v>115188</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M37" s="7">
+        <v>325</v>
+      </c>
+      <c r="N37" s="7">
+        <v>227182</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="M37" s="7">
-        <v>11</v>
-      </c>
-      <c r="N37" s="7">
-        <v>7894</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>267</v>
@@ -6163,13 +6163,13 @@
         <v>323089</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>442</v>
@@ -6178,13 +6178,13 @@
         <v>310647</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>912</v>
@@ -6193,13 +6193,13 @@
         <v>633736</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6220,7 +6220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596ED65A-F8B6-49ED-BB4A-B74358CB0A6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE6ACA7-7C5A-457C-A449-585CD2E3AB2A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6338,253 +6338,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4565</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H4" s="7">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7">
-        <v>9644</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="M4" s="7">
-        <v>22</v>
-      </c>
-      <c r="N4" s="7">
-        <v>14208</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2124</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>436</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>437</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>438</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2688</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>440</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>441</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>36008</v>
+        <v>1279</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>444</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="H6" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>34024</v>
+        <v>804</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>446</v>
+        <v>123</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>447</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="M6" s="7">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>70031</v>
+        <v>2083</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>1306</v>
+        <v>2090</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>436</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>1244</v>
+        <v>4090</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>438</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>439</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>2550</v>
+        <v>6180</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>454</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>58035</v>
+        <v>9838</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>444</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="H8" s="7">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>56781</v>
+        <v>7829</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="M8" s="7">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="N8" s="7">
-        <v>114816</v>
+        <v>17667</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>461</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,108 +6593,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>102037</v>
+        <v>13207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>102256</v>
+        <v>12723</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>302</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>204293</v>
+        <v>25930</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>7707</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>463</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>433</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>3623</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>466</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>11330</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>468</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -6703,13 +6703,13 @@
         <v>850</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -6718,13 +6718,13 @@
         <v>687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -6733,121 +6733,121 @@
         <v>1537</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>16483</v>
+        <v>7707</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="H12" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>19486</v>
+        <v>3623</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>136</v>
+        <v>459</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="M12" s="7">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="N12" s="7">
-        <v>35969</v>
+        <v>11330</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>478</v>
+        <v>120</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>16483</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>464</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>465</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>19486</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>467</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>35969</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>469</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>470</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
         <v>43</v>
@@ -6856,13 +6856,13 @@
         <v>32795</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -6871,13 +6871,13 @@
         <v>32486</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -6886,13 +6886,13 @@
         <v>65281</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,13 +6907,13 @@
         <v>57836</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -6922,13 +6922,13 @@
         <v>56281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -6937,270 +6937,270 @@
         <v>114117</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>11164</v>
+        <v>1306</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>10283</v>
+        <v>1244</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>321</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="M16" s="7">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>21447</v>
+        <v>2550</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>496</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>2124</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>39</v>
+        <v>486</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>2355</v>
+        <v>564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>2355</v>
+        <v>2688</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>491</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>25807</v>
+        <v>4565</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="H18" s="7">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>27881</v>
+        <v>9644</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>144</v>
+        <v>497</v>
       </c>
       <c r="M18" s="7">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="N18" s="7">
-        <v>53688</v>
+        <v>14208</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>509</v>
+        <v>457</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7">
-        <v>636</v>
+        <v>36008</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>501</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I19" s="7">
-        <v>753</v>
+        <v>34024</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>504</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="N19" s="7">
-        <v>1389</v>
+        <v>70031</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>507</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>517</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7">
         <v>83</v>
       </c>
       <c r="D20" s="7">
-        <v>61921</v>
+        <v>58035</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>519</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="H20" s="7">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I20" s="7">
-        <v>62612</v>
+        <v>56781</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="M20" s="7">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N20" s="7">
-        <v>124532</v>
+        <v>114816</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,123 +7209,123 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D21" s="7">
-        <v>99528</v>
+        <v>102037</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="I21" s="7">
-        <v>103884</v>
+        <v>102256</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="N21" s="7">
-        <v>203411</v>
+        <v>204293</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1279</v>
+        <v>549</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M22" s="7">
         <v>1</v>
       </c>
-      <c r="I22" s="7">
-        <v>804</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="M22" s="7">
-        <v>3</v>
-      </c>
       <c r="N22" s="7">
-        <v>2083</v>
+        <v>549</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>530</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>520</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>521</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7334,181 +7334,181 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>532</v>
+        <v>292</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>522</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>2090</v>
+        <v>3166</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>535</v>
+        <v>47</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>4090</v>
+        <v>4710</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="M24" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>6180</v>
+        <v>7876</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>115</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>24863</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>531</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>39</v>
+        <v>532</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>533</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>20673</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>534</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>39</v>
+        <v>535</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>45535</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>537</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>39</v>
+        <v>538</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>533</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D26" s="7">
-        <v>9838</v>
+        <v>44701</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="H26" s="7">
+        <v>70</v>
+      </c>
+      <c r="I26" s="7">
+        <v>44526</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="H26" s="7">
-        <v>9</v>
-      </c>
-      <c r="I26" s="7">
-        <v>7829</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>133</v>
+      </c>
+      <c r="N26" s="7">
+        <v>89228</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="M26" s="7">
-        <v>20</v>
-      </c>
-      <c r="N26" s="7">
-        <v>17667</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7517,303 +7517,303 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D27" s="7">
-        <v>13207</v>
+        <v>74037</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="I27" s="7">
-        <v>12723</v>
+        <v>69909</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="N27" s="7">
-        <v>25930</v>
+        <v>143946</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>3166</v>
+        <v>636</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>434</v>
+        <v>548</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>753</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="H28" s="7">
-        <v>7</v>
-      </c>
-      <c r="I28" s="7">
-        <v>4710</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1389</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="M28" s="7">
-        <v>11</v>
-      </c>
-      <c r="N28" s="7">
-        <v>7876</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3</v>
+      </c>
+      <c r="I29" s="7">
+        <v>2355</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="M29" s="7">
+        <v>3</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2355</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1</v>
-      </c>
-      <c r="N29" s="7">
-        <v>759</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="7">
+        <v>15</v>
+      </c>
+      <c r="D30" s="7">
+        <v>11164</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="H30" s="7">
+        <v>13</v>
+      </c>
+      <c r="I30" s="7">
+        <v>10283</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="M30" s="7">
         <v>28</v>
       </c>
-      <c r="C30" s="7">
-        <v>34</v>
-      </c>
-      <c r="D30" s="7">
-        <v>24863</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="N30" s="7">
+        <v>21447</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="H30" s="7">
-        <v>31</v>
-      </c>
-      <c r="I30" s="7">
-        <v>20673</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="M30" s="7">
-        <v>65</v>
-      </c>
-      <c r="N30" s="7">
-        <v>45535</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D31" s="7">
-        <v>549</v>
+        <v>25807</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="H31" s="7">
+        <v>37</v>
+      </c>
+      <c r="I31" s="7">
+        <v>27881</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="N31" s="7">
-        <v>549</v>
+        <v>53688</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>571</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>572</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D32" s="7">
-        <v>44701</v>
+        <v>61921</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H32" s="7">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I32" s="7">
-        <v>44526</v>
+        <v>62612</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M32" s="7">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="N32" s="7">
-        <v>89228</v>
+        <v>124532</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>581</v>
@@ -7825,49 +7825,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D33" s="7">
-        <v>74037</v>
+        <v>99528</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="I33" s="7">
-        <v>69909</v>
+        <v>103884</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="N33" s="7">
-        <v>143946</v>
+        <v>203411</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7878,55 +7878,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D34" s="7">
-        <v>27882</v>
+        <v>2490</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>583</v>
       </c>
       <c r="H34" s="7">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="I34" s="7">
-        <v>29063</v>
+        <v>1996</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>7</v>
+      </c>
+      <c r="N34" s="7">
+        <v>4487</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="L34" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="M34" s="7">
-        <v>79</v>
-      </c>
-      <c r="N34" s="7">
-        <v>56944</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>588</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>589</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>5</v>
@@ -7935,13 +7935,13 @@
         <v>3733</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -7950,13 +7950,13 @@
         <v>3606</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>308</v>
+        <v>363</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -7965,121 +7965,121 @@
         <v>7339</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>559</v>
+        <v>522</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="D36" s="7">
-        <v>105251</v>
+        <v>27882</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="H36" s="7">
+        <v>41</v>
+      </c>
+      <c r="I36" s="7">
+        <v>29063</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>79</v>
+      </c>
+      <c r="N36" s="7">
+        <v>56944</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="H36" s="7">
-        <v>152</v>
-      </c>
-      <c r="I36" s="7">
-        <v>106153</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="M36" s="7">
-        <v>298</v>
-      </c>
-      <c r="N36" s="7">
-        <v>211404</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="D37" s="7">
-        <v>2490</v>
+        <v>105251</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>514</v>
+        <v>596</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H37" s="7">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="I37" s="7">
-        <v>1996</v>
+        <v>106153</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>287</v>
+        <v>599</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>600</v>
       </c>
       <c r="L37" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="M37" s="7">
+        <v>298</v>
+      </c>
+      <c r="N37" s="7">
+        <v>211404</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="M37" s="7">
-        <v>7</v>
-      </c>
-      <c r="N37" s="7">
-        <v>4487</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C38" s="7">
         <v>283</v>
@@ -8139,13 +8139,13 @@
         <v>346644</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>492</v>
@@ -8154,13 +8154,13 @@
         <v>345054</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>968</v>
@@ -8169,13 +8169,13 @@
         <v>691698</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5491B9D-96FB-4598-B29B-837BECF41948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A1EF96-EBBB-4A31-A42F-8E1E664C414F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C965B464-C34C-43D2-A86C-8EEAFC59A577}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{111D7E3F-2997-4E78-9133-2296CB9AA3D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="618">
   <si>
     <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -70,1813 +70,1828 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2012 (Tasa respuesta: 43,45%)</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2015 (Tasa respuesta: 45,53%)</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
   </si>
   <si>
     <t>34,62%</t>
   </si>
   <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2012 (Tasa respuesta: 43,45%)</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2015 (Tasa respuesta: 45,53%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1902,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1983,39 +1998,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2067,7 +2082,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2178,13 +2193,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2193,6 +2201,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2257,19 +2272,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2F27EE-8FDE-45B8-9A75-729E7C9F1F5D}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACC2CB0-218A-4EA2-9992-818C603FCDDE}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2386,10 +2421,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5328</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2401,91 +2436,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>4623</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>9951</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>7152</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7790</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>14942</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2494,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -2509,13 +2544,13 @@
         <v>929</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -2524,115 +2559,115 @@
         <v>929</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>7152</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>7790</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>14942</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7">
-        <v>5328</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>4623</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>9951</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,106 +2729,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>17692</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>19293</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>36985</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D11" s="7">
-        <v>808</v>
+        <v>34377</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>22172</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="N11" s="7">
-        <v>808</v>
+        <v>56549</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>4</v>
@@ -2802,13 +2837,13 @@
         <v>2611</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -2817,13 +2852,13 @@
         <v>1966</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -2832,112 +2867,112 @@
         <v>4577</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>34377</v>
+        <v>808</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>22172</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>56549</v>
+        <v>808</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7">
-        <v>28</v>
-      </c>
-      <c r="D14" s="7">
-        <v>17692</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>19293</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="M14" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>36985</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>77</v>
@@ -3002,106 +3037,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>39186</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>40249</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>79435</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D17" s="7">
-        <v>680</v>
+        <v>40431</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="I17" s="7">
-        <v>654</v>
+        <v>51104</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="N17" s="7">
-        <v>1333</v>
+        <v>91535</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>16</v>
@@ -3110,13 +3145,13 @@
         <v>10467</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -3125,13 +3160,13 @@
         <v>7174</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -3140,115 +3175,115 @@
         <v>17641</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>40431</v>
+        <v>680</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>51104</v>
+        <v>654</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>91535</v>
+        <v>1333</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7">
-        <v>59</v>
-      </c>
-      <c r="D20" s="7">
-        <v>39186</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>40249</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>79435</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,112 +3339,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>35810</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>31202</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>67012</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>21015</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I23" s="7">
-        <v>632</v>
+        <v>20689</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="N23" s="7">
-        <v>632</v>
+        <v>41704</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>6</v>
@@ -3418,13 +3453,13 @@
         <v>3833</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3433,13 +3468,13 @@
         <v>3130</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -3448,112 +3483,112 @@
         <v>6963</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>21015</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>20689</v>
+        <v>632</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>41704</v>
+        <v>632</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C26" s="7">
-        <v>57</v>
-      </c>
-      <c r="D26" s="7">
-        <v>35810</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>142</v>
       </c>
       <c r="H26" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>31202</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M26" s="7">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>67012</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>148</v>
@@ -3618,106 +3653,106 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>38247</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>29763</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>68010</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>39915</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="I29" s="7">
-        <v>1397</v>
+        <v>37415</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="N29" s="7">
-        <v>1397</v>
+        <v>77330</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>15</v>
@@ -3726,13 +3761,13 @@
         <v>9967</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -3741,13 +3776,13 @@
         <v>9734</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -3756,115 +3791,115 @@
         <v>19701</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>39915</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H31" s="7">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>37415</v>
+        <v>1397</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M31" s="7">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>77330</v>
+        <v>1397</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="7">
-        <v>54</v>
-      </c>
-      <c r="D32" s="7">
-        <v>38247</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="H32" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>29763</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M32" s="7">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>68010</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,106 +3961,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>136262</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>125131</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M34" s="7">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="N34" s="7">
-        <v>0</v>
+        <v>261394</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="D35" s="7">
-        <v>1488</v>
+        <v>142890</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H35" s="7">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="I35" s="7">
-        <v>2682</v>
+        <v>139170</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M35" s="7">
-        <v>6</v>
+        <v>421</v>
       </c>
       <c r="N35" s="7">
-        <v>4170</v>
+        <v>282061</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>41</v>
@@ -4034,13 +4069,13 @@
         <v>26878</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H36" s="7">
         <v>34</v>
@@ -4049,13 +4084,13 @@
         <v>22932</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M36" s="7">
         <v>75</v>
@@ -4064,115 +4099,115 @@
         <v>49810</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>215</v>
+        <v>2</v>
       </c>
       <c r="D37" s="7">
-        <v>142890</v>
+        <v>1488</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H37" s="7">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="I37" s="7">
-        <v>139170</v>
+        <v>2682</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M37" s="7">
-        <v>421</v>
+        <v>6</v>
       </c>
       <c r="N37" s="7">
-        <v>282061</v>
+        <v>4170</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="7">
-        <v>205</v>
-      </c>
-      <c r="D38" s="7">
-        <v>136262</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="G38" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H38" s="7">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>125131</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>216</v>
       </c>
       <c r="M38" s="7">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="N38" s="7">
-        <v>261394</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,6 +4259,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4244,8 +4284,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DDA238-88B8-44FD-8A88-34EDF4AB476F}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9588C211-E6BA-49D3-B762-563F665FCF55}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4261,7 +4301,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4362,106 +4402,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6312</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>926</v>
+        <v>6804</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>926</v>
+        <v>13116</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>8178</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3546</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M5" s="7">
         <v>13</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>11724</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4470,13 +4510,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4485,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4500,115 +4540,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>8178</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3546</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>11724</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7">
-        <v>6312</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>6804</v>
+        <v>926</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>241</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>13116</v>
+        <v>926</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>242</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,106 +4710,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>1310</v>
+        <v>31967</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>697</v>
+        <v>28083</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="N10" s="7">
-        <v>2007</v>
+        <v>60050</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>1334</v>
+        <v>18963</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I11" s="7">
-        <v>736</v>
+        <v>16981</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="N11" s="7">
-        <v>2070</v>
+        <v>35944</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -4778,13 +4818,13 @@
         <v>3225</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -4793,13 +4833,13 @@
         <v>4938</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -4808,115 +4848,115 @@
         <v>8162</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>18963</v>
+        <v>1334</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>16981</v>
+        <v>736</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>35944</v>
+        <v>2070</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>31967</v>
+        <v>1310</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>28083</v>
+        <v>697</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>60050</v>
+        <v>2007</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,106 +5018,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D16" s="7">
-        <v>2086</v>
+        <v>50112</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="I16" s="7">
-        <v>1451</v>
+        <v>50021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="N16" s="7">
-        <v>3537</v>
+        <v>100133</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>36009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="I17" s="7">
-        <v>609</v>
+        <v>37156</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="N17" s="7">
-        <v>609</v>
+        <v>73165</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>10</v>
@@ -5086,13 +5126,13 @@
         <v>6336</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -5101,13 +5141,13 @@
         <v>8599</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>297</v>
+        <v>62</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -5116,115 +5156,115 @@
         <v>14935</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>36009</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>303</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>37156</v>
+        <v>609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>73165</v>
+        <v>609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>309</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>50112</v>
+        <v>2086</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>313</v>
       </c>
       <c r="H20" s="7">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>50021</v>
+        <v>1451</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>5</v>
+      </c>
+      <c r="N20" s="7">
+        <v>3537</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="M20" s="7">
-        <v>150</v>
-      </c>
-      <c r="N20" s="7">
-        <v>100133</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,112 +5320,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>44957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I22" s="7">
-        <v>656</v>
+        <v>33008</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="N22" s="7">
-        <v>656</v>
+        <v>77965</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D23" s="7">
-        <v>1814</v>
+        <v>17741</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I23" s="7">
-        <v>1929</v>
+        <v>23853</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="N23" s="7">
-        <v>3743</v>
+        <v>41594</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>6</v>
@@ -5394,13 +5434,13 @@
         <v>3990</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -5409,13 +5449,13 @@
         <v>5720</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>59</v>
+        <v>337</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -5424,115 +5464,115 @@
         <v>9710</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>48</v>
+        <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>17741</v>
+        <v>1814</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>340</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H25" s="7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>23853</v>
+        <v>1929</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>41594</v>
+        <v>3743</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="7">
-        <v>71</v>
-      </c>
-      <c r="D26" s="7">
-        <v>44957</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>33008</v>
+        <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>352</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>353</v>
       </c>
       <c r="M26" s="7">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>77965</v>
+        <v>656</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>354</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,106 +5634,106 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>48192</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>357</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="I28" s="7">
-        <v>768</v>
+        <v>45335</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>360</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="N28" s="7">
-        <v>768</v>
+        <v>93526</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D29" s="7">
-        <v>624</v>
+        <v>31103</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H29" s="7">
+        <v>43</v>
+      </c>
+      <c r="I29" s="7">
+        <v>33653</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="M29" s="7">
         <v>86</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1</v>
-      </c>
       <c r="N29" s="7">
-        <v>624</v>
+        <v>64756</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>11</v>
@@ -5702,13 +5742,13 @@
         <v>8837</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -5717,13 +5757,13 @@
         <v>5179</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -5732,115 +5772,115 @@
         <v>14016</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>31103</v>
+        <v>624</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>374</v>
+        <v>109</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>375</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H31" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>33653</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>378</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M31" s="7">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>64756</v>
+        <v>624</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>381</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C32" s="7">
-        <v>67</v>
-      </c>
-      <c r="D32" s="7">
-        <v>48192</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>385</v>
       </c>
       <c r="H32" s="7">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>45335</v>
+        <v>768</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>386</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>768</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="M32" s="7">
-        <v>126</v>
-      </c>
-      <c r="N32" s="7">
-        <v>93526</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,64 +5942,64 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>5</v>
+        <v>267</v>
       </c>
       <c r="D34" s="7">
-        <v>3396</v>
+        <v>181540</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H34" s="7">
+        <v>231</v>
+      </c>
+      <c r="I34" s="7">
+        <v>163250</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H34" s="7">
-        <v>6</v>
-      </c>
-      <c r="I34" s="7">
-        <v>4498</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>498</v>
+      </c>
+      <c r="N34" s="7">
+        <v>344790</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="M34" s="7">
-        <v>11</v>
-      </c>
-      <c r="N34" s="7">
-        <v>7894</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>117</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="D35" s="7">
-        <v>3771</v>
+        <v>111994</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>396</v>
+        <v>151</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>397</v>
@@ -5968,40 +6008,40 @@
         <v>398</v>
       </c>
       <c r="H35" s="7">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="I35" s="7">
-        <v>3275</v>
+        <v>115188</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="M35" s="7">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="N35" s="7">
-        <v>7046</v>
+        <v>227182</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>256</v>
+        <v>403</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>32</v>
@@ -6010,13 +6050,13 @@
         <v>22387</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H36" s="7">
         <v>35</v>
@@ -6025,13 +6065,13 @@
         <v>24436</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>405</v>
+        <v>40</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M36" s="7">
         <v>67</v>
@@ -6040,115 +6080,115 @@
         <v>46823</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>332</v>
+        <v>411</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="D37" s="7">
-        <v>111994</v>
+        <v>3771</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>410</v>
+        <v>215</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="H37" s="7">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="I37" s="7">
-        <v>115188</v>
+        <v>3275</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>112</v>
+        <v>416</v>
       </c>
       <c r="M37" s="7">
-        <v>325</v>
+        <v>11</v>
       </c>
       <c r="N37" s="7">
-        <v>227182</v>
+        <v>7046</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>267</v>
+        <v>5</v>
       </c>
       <c r="D38" s="7">
-        <v>181540</v>
+        <v>3396</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H38" s="7">
-        <v>231</v>
+        <v>6</v>
       </c>
       <c r="I38" s="7">
-        <v>163250</v>
+        <v>4498</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M38" s="7">
-        <v>498</v>
+        <v>11</v>
       </c>
       <c r="N38" s="7">
-        <v>344790</v>
+        <v>7894</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>424</v>
+        <v>107</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,6 +6240,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -6220,8 +6265,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE6ACA7-7C5A-457C-A449-585CD2E3AB2A}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72995CF6-E2B7-4A4D-A8D7-0E47C7528FBC}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6237,7 +6282,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6338,106 +6383,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>9838</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>428</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>429</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>430</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>7829</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>431</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>432</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>17667</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>434</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>435</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2090</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>437</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>438</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>439</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>4090</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>440</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>441</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>6180</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>443</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>444</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -6446,13 +6491,13 @@
         <v>1279</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>430</v>
+        <v>124</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6461,13 +6506,13 @@
         <v>804</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6476,115 +6521,115 @@
         <v>2083</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>2090</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>435</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>436</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>437</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>4090</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>438</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>439</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>6180</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>441</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>442</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7">
-        <v>9838</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>444</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>445</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>446</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>447</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M8" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>17667</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>449</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,106 +6691,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>32795</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>454</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>32486</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>456</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>457</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>65281</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>459</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>460</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>850</v>
+        <v>16483</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>462</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>463</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7">
-        <v>687</v>
+        <v>19486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>466</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="N11" s="7">
-        <v>1537</v>
+        <v>35969</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>288</v>
+        <v>468</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>469</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>10</v>
@@ -6754,13 +6799,13 @@
         <v>7707</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -6769,13 +6814,13 @@
         <v>3623</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -6784,115 +6829,115 @@
         <v>11330</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>120</v>
+        <v>478</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>16483</v>
+        <v>850</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>465</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>19486</v>
+        <v>687</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>467</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="M13" s="7">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>35969</v>
+        <v>1537</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>469</v>
+        <v>308</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>470</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7">
-        <v>43</v>
-      </c>
-      <c r="D14" s="7">
-        <v>32795</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>473</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="H14" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>32486</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>475</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>476</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="M14" s="7">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>65281</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>478</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>479</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,106 +6999,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7">
-        <v>1306</v>
+        <v>58035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>488</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="I16" s="7">
-        <v>1244</v>
+        <v>56781</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>490</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="N16" s="7">
-        <v>2550</v>
+        <v>114816</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7">
-        <v>2124</v>
+        <v>36008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>495</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I17" s="7">
-        <v>564</v>
+        <v>34024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="N17" s="7">
-        <v>2688</v>
+        <v>70031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>7</v>
@@ -7062,13 +7107,13 @@
         <v>4565</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>493</v>
+        <v>142</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -7077,13 +7122,13 @@
         <v>9644</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>495</v>
+        <v>407</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>496</v>
+        <v>313</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -7092,115 +7137,115 @@
         <v>14208</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>36008</v>
+        <v>2124</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>500</v>
+        <v>147</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>501</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H19" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>34024</v>
+        <v>564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>504</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>505</v>
+        <v>146</v>
       </c>
       <c r="M19" s="7">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>70031</v>
+        <v>2688</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>411</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>58035</v>
+        <v>1306</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>508</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H20" s="7">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>56781</v>
+        <v>1244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>510</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>511</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M20" s="7">
-        <v>167</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>114816</v>
+        <v>2550</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>513</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,112 +7301,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D22" s="7">
-        <v>549</v>
+        <v>44701</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>519</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>44526</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>521</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>522</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>292</v>
+        <v>523</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="N22" s="7">
-        <v>549</v>
+        <v>89228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>518</v>
+        <v>361</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>524</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D23" s="7">
-        <v>759</v>
+        <v>24863</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>527</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>20673</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>529</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>530</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>292</v>
+        <v>398</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="N23" s="7">
-        <v>759</v>
+        <v>45535</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
@@ -7370,13 +7415,13 @@
         <v>3166</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>47</v>
+        <v>271</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -7385,13 +7430,13 @@
         <v>4710</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>525</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -7400,115 +7445,115 @@
         <v>7876</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>24863</v>
+        <v>759</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>532</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="H25" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>20673</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>534</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>535</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>536</v>
+        <v>351</v>
       </c>
       <c r="M25" s="7">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>45535</v>
+        <v>759</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>538</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>549</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="7">
-        <v>63</v>
-      </c>
-      <c r="D26" s="7">
-        <v>44701</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="H26" s="7">
-        <v>70</v>
-      </c>
-      <c r="I26" s="7">
-        <v>44526</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>543</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>544</v>
+        <v>351</v>
       </c>
       <c r="M26" s="7">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>89228</v>
+        <v>549</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>546</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>547</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,106 +7615,106 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="D28" s="7">
-        <v>636</v>
+        <v>61921</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>548</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>549</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="I28" s="7">
-        <v>753</v>
+        <v>62612</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>552</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="N28" s="7">
-        <v>1389</v>
+        <v>124532</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>555</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>25807</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>557</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>558</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="H29" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I29" s="7">
-        <v>2355</v>
+        <v>27881</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>82</v>
+        <v>561</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="N29" s="7">
-        <v>2355</v>
+        <v>53688</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>564</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>15</v>
@@ -7678,13 +7723,13 @@
         <v>11164</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>158</v>
+        <v>567</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -7693,13 +7738,13 @@
         <v>10283</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>359</v>
+        <v>570</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -7708,115 +7753,115 @@
         <v>21447</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>25807</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>566</v>
+        <v>31</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>567</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>568</v>
+        <v>66</v>
       </c>
       <c r="H31" s="7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>27881</v>
+        <v>2355</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="M31" s="7">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="N31" s="7">
-        <v>53688</v>
+        <v>2355</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>61921</v>
+        <v>636</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>575</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="H32" s="7">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>62612</v>
+        <v>753</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>578</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M32" s="7">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>124532</v>
+        <v>1389</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>510</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>581</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7878,106 +7923,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>4</v>
+        <v>283</v>
       </c>
       <c r="D34" s="7">
-        <v>2490</v>
+        <v>207289</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H34" s="7">
-        <v>3</v>
+        <v>291</v>
       </c>
       <c r="I34" s="7">
-        <v>1996</v>
+        <v>204235</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>249</v>
+        <v>586</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="M34" s="7">
-        <v>7</v>
+        <v>574</v>
       </c>
       <c r="N34" s="7">
-        <v>4487</v>
+        <v>411524</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>81</v>
+        <v>589</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>395</v>
+        <v>591</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="D35" s="7">
-        <v>3733</v>
+        <v>105251</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>397</v>
+        <v>593</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>452</v>
+        <v>25</v>
       </c>
       <c r="H35" s="7">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="I35" s="7">
-        <v>3606</v>
+        <v>106153</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>392</v>
+        <v>594</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>363</v>
+        <v>595</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>258</v>
+        <v>596</v>
       </c>
       <c r="M35" s="7">
-        <v>10</v>
+        <v>298</v>
       </c>
       <c r="N35" s="7">
-        <v>7339</v>
+        <v>211404</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>522</v>
+        <v>598</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>248</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>38</v>
@@ -7986,13 +8031,13 @@
         <v>27882</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>120</v>
+        <v>601</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="H36" s="7">
         <v>41</v>
@@ -8001,13 +8046,13 @@
         <v>29063</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="M36" s="7">
         <v>79</v>
@@ -8016,115 +8061,115 @@
         <v>56944</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>595</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>146</v>
+        <v>5</v>
       </c>
       <c r="D37" s="7">
-        <v>105251</v>
+        <v>3733</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>597</v>
+        <v>215</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="H37" s="7">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="I37" s="7">
-        <v>106153</v>
+        <v>3606</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>599</v>
+        <v>414</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="M37" s="7">
-        <v>298</v>
+        <v>10</v>
       </c>
       <c r="N37" s="7">
-        <v>211404</v>
+        <v>7339</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>303</v>
+        <v>611</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>602</v>
+        <v>543</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
-        <v>283</v>
+        <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>207289</v>
+        <v>2490</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="H38" s="7">
-        <v>291</v>
+        <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>204235</v>
+        <v>1996</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>607</v>
+        <v>281</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>609</v>
+        <v>382</v>
       </c>
       <c r="M38" s="7">
-        <v>574</v>
+        <v>7</v>
       </c>
       <c r="N38" s="7">
-        <v>411524</v>
+        <v>4487</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>610</v>
+        <v>113</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8176,6 +8221,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C09-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A1EF96-EBBB-4A31-A42F-8E1E664C414F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6DA9692-C471-4732-951E-7289D41FA049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{111D7E3F-2997-4E78-9133-2296CB9AA3D5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E3F79AB-C752-4A4E-A5EA-25668FD0EB64}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="629">
   <si>
     <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2007 (Tasa respuesta: 42,49%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,28 +76,28 @@
     <t>42,69%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
   </si>
   <si>
     <t>34,65%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
   </si>
   <si>
     <t>38,54%</t>
   </si>
   <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>57,31%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
   </si>
   <si>
     <t>58,39%</t>
   </si>
   <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
   </si>
   <si>
     <t>57,87%</t>
   </si>
   <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -145,13 +145,13 @@
     <t>6,96%</t>
   </si>
   <si>
-    <t>33,83%</t>
+    <t>29,26%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>19,56%</t>
+    <t>17,87%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -169,1729 +169,1762 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>31,88%</t>
   </si>
   <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2012 (Tasa respuesta: 43,45%)</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
     <t>22,22%</t>
   </si>
   <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2016 (Tasa respuesta: 45,53%)</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>38,16%</t>
   </si>
   <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2012 (Tasa respuesta: 43,45%)</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido hablar de todos sus amigos en 2015 (Tasa respuesta: 45,53%)</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>1,72%</t>
   </si>
   <si>
     <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
   </si>
 </sst>
 </file>
@@ -2303,7 +2336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACC2CB0-218A-4EA2-9992-818C603FCDDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041FE4AA-B100-4AC2-84F4-BCDABCCF6100}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3148,10 +3181,10 @@
         <v>97</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -3160,13 +3193,13 @@
         <v>7174</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -3175,13 +3208,13 @@
         <v>17641</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3229,13 @@
         <v>680</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3211,13 +3244,13 @@
         <v>654</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3226,13 +3259,13 @@
         <v>1333</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3286,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3268,7 +3301,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3283,7 +3316,7 @@
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,7 +3372,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3351,13 +3384,13 @@
         <v>35810</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -3366,13 +3399,13 @@
         <v>31202</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>107</v>
@@ -3381,13 +3414,13 @@
         <v>67012</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3435,13 @@
         <v>21015</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -3417,13 +3450,13 @@
         <v>20689</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>67</v>
@@ -3432,13 +3465,13 @@
         <v>41704</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3486,13 @@
         <v>3833</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3468,13 +3501,13 @@
         <v>3130</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -3483,13 +3516,13 @@
         <v>6963</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,7 +3543,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3519,13 +3552,13 @@
         <v>632</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -3534,13 +3567,13 @@
         <v>632</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,7 +3594,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3576,7 +3609,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3591,7 +3624,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,7 +3680,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3659,13 +3692,13 @@
         <v>38247</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H28" s="7">
         <v>39</v>
@@ -3674,13 +3707,13 @@
         <v>29763</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M28" s="7">
         <v>93</v>
@@ -3689,13 +3722,13 @@
         <v>68010</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3743,13 @@
         <v>39915</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -3725,13 +3758,13 @@
         <v>37415</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>107</v>
@@ -3740,13 +3773,13 @@
         <v>77330</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3794,13 @@
         <v>9967</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -3776,13 +3809,13 @@
         <v>9734</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -3791,13 +3824,13 @@
         <v>19701</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,7 +3851,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -3827,13 +3860,13 @@
         <v>1397</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -3842,13 +3875,13 @@
         <v>1397</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,7 +3902,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3884,7 +3917,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3899,7 +3932,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +4000,13 @@
         <v>136262</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H34" s="7">
         <v>187</v>
@@ -3982,13 +4015,13 @@
         <v>125131</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M34" s="7">
         <v>392</v>
@@ -3997,13 +4030,13 @@
         <v>261394</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4051,13 @@
         <v>142890</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H35" s="7">
         <v>206</v>
@@ -4033,13 +4066,13 @@
         <v>139170</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="M35" s="7">
         <v>421</v>
@@ -4048,13 +4081,13 @@
         <v>282061</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4102,13 @@
         <v>26878</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H36" s="7">
         <v>34</v>
@@ -4084,13 +4117,13 @@
         <v>22932</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M36" s="7">
         <v>75</v>
@@ -4099,13 +4132,13 @@
         <v>49810</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4153,13 @@
         <v>1488</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -4135,13 +4168,13 @@
         <v>2682</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M37" s="7">
         <v>6</v>
@@ -4150,13 +4183,13 @@
         <v>4170</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>66</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,7 +4210,7 @@
         <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4192,7 +4225,7 @@
         <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -4207,7 +4240,7 @@
         <v>32</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,7 +4296,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4284,7 +4317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9588C211-E6BA-49D3-B762-563F665FCF55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA267314-4DFB-494A-A96F-5483028EC7B7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4301,7 +4334,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4408,13 +4441,13 @@
         <v>6312</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4423,13 +4456,13 @@
         <v>6804</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -4438,13 +4471,13 @@
         <v>13116</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4492,13 @@
         <v>8178</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4474,13 +4507,13 @@
         <v>3546</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -4489,13 +4522,13 @@
         <v>11724</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,7 +4564,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4546,7 +4579,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,7 +4615,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4597,7 +4630,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4660,13 @@
         <v>926</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4642,13 +4675,13 @@
         <v>926</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4749,13 @@
         <v>31967</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>245</v>
+        <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4731,13 +4764,13 @@
         <v>28083</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -4746,13 +4779,13 @@
         <v>60050</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4800,13 @@
         <v>18963</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -4782,13 +4815,13 @@
         <v>16981</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -4797,13 +4830,13 @@
         <v>35944</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4851,13 @@
         <v>3225</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -4833,13 +4866,13 @@
         <v>4938</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -4848,13 +4881,13 @@
         <v>8162</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,13 +4902,13 @@
         <v>1334</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4884,13 +4917,13 @@
         <v>736</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4899,13 +4932,13 @@
         <v>2070</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,13 +4953,13 @@
         <v>1310</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4935,13 +4968,13 @@
         <v>697</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -4950,13 +4983,13 @@
         <v>2007</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5057,13 @@
         <v>50112</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -5039,13 +5072,13 @@
         <v>50021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>150</v>
@@ -5054,13 +5087,13 @@
         <v>100133</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5108,13 @@
         <v>36009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -5090,13 +5123,13 @@
         <v>37156</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
@@ -5105,13 +5138,13 @@
         <v>73165</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5159,13 @@
         <v>6336</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -5141,13 +5174,13 @@
         <v>8599</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -5156,13 +5189,13 @@
         <v>14935</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,7 +5216,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5192,13 +5225,13 @@
         <v>609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5207,13 +5240,13 @@
         <v>609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,13 +5261,13 @@
         <v>2086</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5243,13 +5276,13 @@
         <v>1451</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5258,13 +5291,13 @@
         <v>3537</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,7 +5353,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5332,13 +5365,13 @@
         <v>44957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -5347,13 +5380,13 @@
         <v>33008</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>327</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -5362,13 +5395,13 @@
         <v>77965</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5416,13 @@
         <v>17741</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H23" s="7">
         <v>37</v>
@@ -5398,13 +5431,13 @@
         <v>23853</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -5413,13 +5446,13 @@
         <v>41594</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5467,13 @@
         <v>3990</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>276</v>
+        <v>342</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -5449,13 +5482,13 @@
         <v>5720</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -5464,13 +5497,13 @@
         <v>9710</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5518,13 @@
         <v>1814</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5500,13 +5533,13 @@
         <v>1929</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5515,13 +5548,13 @@
         <v>3743</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,7 +5575,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5551,13 +5584,13 @@
         <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5566,13 +5599,13 @@
         <v>656</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,7 +5661,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5640,13 +5673,13 @@
         <v>48192</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H28" s="7">
         <v>59</v>
@@ -5655,13 +5688,13 @@
         <v>45335</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M28" s="7">
         <v>126</v>
@@ -5670,13 +5703,13 @@
         <v>93526</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>362</v>
+        <v>96</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>198</v>
+        <v>366</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5724,13 @@
         <v>31103</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H29" s="7">
         <v>43</v>
@@ -5706,13 +5739,13 @@
         <v>33653</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M29" s="7">
         <v>86</v>
@@ -5721,13 +5754,13 @@
         <v>64756</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5775,13 @@
         <v>8837</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -5757,13 +5790,13 @@
         <v>5179</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>377</v>
+        <v>135</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -5772,13 +5805,13 @@
         <v>14016</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5826,13 @@
         <v>624</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5814,7 +5847,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -5823,13 +5856,13 @@
         <v>624</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,7 +5883,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -5859,13 +5892,13 @@
         <v>768</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -5874,13 +5907,13 @@
         <v>768</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>388</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5981,13 @@
         <v>181540</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H34" s="7">
         <v>231</v>
@@ -5963,13 +5996,13 @@
         <v>163250</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>84</v>
+        <v>396</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M34" s="7">
         <v>498</v>
@@ -5978,13 +6011,13 @@
         <v>344790</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +6032,13 @@
         <v>111994</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>151</v>
+        <v>401</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H35" s="7">
         <v>165</v>
@@ -6014,13 +6047,13 @@
         <v>115188</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M35" s="7">
         <v>325</v>
@@ -6029,13 +6062,13 @@
         <v>227182</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6083,13 @@
         <v>22387</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="H36" s="7">
         <v>35</v>
@@ -6065,13 +6098,13 @@
         <v>24436</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>40</v>
+        <v>414</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M36" s="7">
         <v>67</v>
@@ -6080,13 +6113,13 @@
         <v>46823</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>411</v>
+        <v>341</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6134,13 @@
         <v>3771</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>355</v>
+        <v>419</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -6116,13 +6149,13 @@
         <v>3275</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
@@ -6131,13 +6164,13 @@
         <v>7046</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6185,13 @@
         <v>3396</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H38" s="7">
         <v>6</v>
@@ -6167,13 +6200,13 @@
         <v>4498</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>423</v>
+        <v>108</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M38" s="7">
         <v>11</v>
@@ -6182,13 +6215,13 @@
         <v>7894</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>107</v>
+        <v>431</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,7 +6277,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6265,7 +6298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72995CF6-E2B7-4A4D-A8D7-0E47C7528FBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E02EBE7-BB8B-47D1-90E6-5CEF9BDE0015}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6282,7 +6315,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6389,13 +6422,13 @@
         <v>9838</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -6404,13 +6437,13 @@
         <v>7829</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -6419,13 +6452,13 @@
         <v>17667</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,13 +6473,13 @@
         <v>2090</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6455,13 +6488,13 @@
         <v>4090</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -6470,13 +6503,13 @@
         <v>6180</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,13 +6524,13 @@
         <v>1279</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>124</v>
+        <v>453</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6506,13 +6539,13 @@
         <v>804</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6521,13 +6554,13 @@
         <v>2083</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,7 +6596,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6578,7 +6611,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>452</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,7 +6647,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6629,7 +6662,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>452</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6730,13 @@
         <v>32795</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -6712,13 +6745,13 @@
         <v>32486</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -6727,13 +6760,13 @@
         <v>65281</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6781,13 @@
         <v>16483</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -6763,13 +6796,13 @@
         <v>19486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -6778,13 +6811,13 @@
         <v>35969</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,13 +6832,13 @@
         <v>7707</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -6814,13 +6847,13 @@
         <v>3623</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>475</v>
+        <v>279</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -6829,13 +6862,13 @@
         <v>11330</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6883,13 @@
         <v>850</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -6865,13 +6898,13 @@
         <v>687</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -6880,13 +6913,13 @@
         <v>1537</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,7 +6940,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6922,7 +6955,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6937,7 +6970,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,13 +7038,13 @@
         <v>58035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -7020,13 +7053,13 @@
         <v>56781</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>496</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="M16" s="7">
         <v>167</v>
@@ -7035,13 +7068,13 @@
         <v>114816</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7089,13 @@
         <v>36008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -7071,13 +7104,13 @@
         <v>34024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -7086,13 +7119,13 @@
         <v>70031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7140,13 @@
         <v>4565</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -7122,13 +7155,13 @@
         <v>9644</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>313</v>
+        <v>513</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -7137,13 +7170,13 @@
         <v>14208</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7191,13 @@
         <v>2124</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7173,13 +7206,13 @@
         <v>564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>146</v>
+        <v>520</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -7188,13 +7221,13 @@
         <v>2688</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>301</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7242,13 @@
         <v>1306</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>524</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7224,13 +7257,13 @@
         <v>1244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>515</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -7239,13 +7272,13 @@
         <v>2550</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>517</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,7 +7334,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7313,13 +7346,13 @@
         <v>44701</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -7328,13 +7361,13 @@
         <v>44526</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="M22" s="7">
         <v>133</v>
@@ -7343,13 +7376,13 @@
         <v>89228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>533</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,13 +7397,13 @@
         <v>24863</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -7379,13 +7412,13 @@
         <v>20673</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>398</v>
+        <v>541</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -7394,13 +7427,13 @@
         <v>45535</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7448,13 @@
         <v>3166</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -7430,13 +7463,13 @@
         <v>4710</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>547</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -7445,13 +7478,13 @@
         <v>7876</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,13 +7499,13 @@
         <v>759</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7487,7 +7520,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -7496,13 +7529,13 @@
         <v>759</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7517,13 +7550,13 @@
         <v>549</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7538,7 +7571,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -7547,13 +7580,13 @@
         <v>549</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,7 +7642,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7621,13 +7654,13 @@
         <v>61921</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="H28" s="7">
         <v>81</v>
@@ -7636,13 +7669,13 @@
         <v>62612</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="M28" s="7">
         <v>164</v>
@@ -7651,13 +7684,13 @@
         <v>124532</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,13 +7705,13 @@
         <v>25807</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="H29" s="7">
         <v>37</v>
@@ -7687,13 +7720,13 @@
         <v>27881</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>562</v>
+        <v>125</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -7702,13 +7735,13 @@
         <v>53688</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7723,13 +7756,13 @@
         <v>11164</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -7738,13 +7771,13 @@
         <v>10283</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -7753,13 +7786,13 @@
         <v>21447</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,13 +7822,13 @@
         <v>2355</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>545</v>
+        <v>106</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>178</v>
+        <v>588</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -7804,13 +7837,13 @@
         <v>2355</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7825,13 +7858,13 @@
         <v>636</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -7840,13 +7873,13 @@
         <v>753</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>581</v>
+        <v>244</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -7855,13 +7888,13 @@
         <v>1389</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>426</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7929,13 +7962,13 @@
         <v>207289</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="H34" s="7">
         <v>291</v>
@@ -7944,13 +7977,13 @@
         <v>204235</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="M34" s="7">
         <v>574</v>
@@ -7959,13 +7992,13 @@
         <v>411524</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>591</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7980,13 +8013,13 @@
         <v>105251</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>25</v>
+        <v>471</v>
       </c>
       <c r="H35" s="7">
         <v>152</v>
@@ -7995,13 +8028,13 @@
         <v>106153</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="M35" s="7">
         <v>298</v>
@@ -8010,13 +8043,13 @@
         <v>211404</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8031,13 +8064,13 @@
         <v>27882</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>600</v>
+        <v>176</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="H36" s="7">
         <v>41</v>
@@ -8046,13 +8079,13 @@
         <v>29063</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>604</v>
+        <v>203</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="M36" s="7">
         <v>79</v>
@@ -8061,13 +8094,13 @@
         <v>56944</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>141</v>
+        <v>618</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8082,13 +8115,13 @@
         <v>3733</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>215</v>
+        <v>421</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -8097,13 +8130,13 @@
         <v>3606</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="M37" s="7">
         <v>10</v>
@@ -8112,13 +8145,13 @@
         <v>7339</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>543</v>
+        <v>623</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>612</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,13 +8166,13 @@
         <v>2490</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -8148,13 +8181,13 @@
         <v>1996</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>281</v>
+        <v>626</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>382</v>
+        <v>627</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -8163,13 +8196,13 @@
         <v>4487</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>617</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,7 +8258,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
